--- a/user-data/out-dac-oda-net/out-dac-oda-net.xlsx
+++ b/user-data/out-dac-oda-net/out-dac-oda-net.xlsx
@@ -193,7 +193,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>US</t>
@@ -277,7 +277,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
